--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_20_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64824.34628705904</v>
+        <v>12778424.68318543</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64824.34628705904</v>
+        <v>12778424.68318543</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6342.195152023091</v>
+        <v>761566.4912337844</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6342.195152023091</v>
+        <v>761566.4912337844</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342718267.767342</v>
+        <v>55033430.9808016</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11415.61960551414</v>
+        <v>1277880.17880804</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21681.83128791855</v>
+        <v>2377980.113934634</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31948.04297032261</v>
+        <v>3478080.049061279</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42256.08388432626</v>
+        <v>4580510.710621422</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>52553.82984883407</v>
+        <v>5680892.677232232</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>62851.57581334223</v>
+        <v>6781274.643842977</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73149.32177785056</v>
+        <v>7881656.610453685</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83447.06774235929</v>
+        <v>8982038.577064328</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>93570.14419817839</v>
+        <v>10026107.33651233</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>103566.6339337643</v>
+        <v>11123863.24270762</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>113563.1236693509</v>
+        <v>12221619.14890284</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>123486.7291148501</v>
+        <v>13316297.14280565</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>133430.9244593392</v>
+        <v>14414115.09630442</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>143854.1983466967</v>
+        <v>15441921.06188217</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>154611.1529519522</v>
+        <v>16419737.78438587</v>
       </c>
     </row>
   </sheetData>
@@ -27055,10 +27055,10 @@
         <v>9.999999999944917</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>394.9999999999729</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,10 +27144,10 @@
         <v>346</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
